--- a/Code/Api/talus-apiv0.1/Api-documentation.xlsx
+++ b/Code/Api/talus-apiv0.1/Api-documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payto\Desktop\Programing\Talus\Talus-apiv_.1\talus-apiv0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\# Active\Programing\Talus\Talus-apiv_.1\talus-apiv0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9825FE71-8C5D-4E74-A771-5BBA6BDD71D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2C3EAD-66C5-47D3-81B3-C674C476881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="4188" windowWidth="17280" windowHeight="8964" xr2:uid="{EC0C10AE-12A2-4686-983D-17DBE0389B28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC0C10AE-12A2-4686-983D-17DBE0389B28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Function name(params)</t>
   </si>
@@ -98,19 +98,28 @@
     <t>wave()</t>
   </si>
   <si>
-    <t>does a side was wavr(do not run unles arm is hanging off edge of table)</t>
-  </si>
-  <si>
-    <t>serServo(servo num(0-8) , position)</t>
-  </si>
-  <si>
     <t>this command is not limited, and takes direct numbers from serial input and will apply them no matter what they are(CAUTION)</t>
   </si>
   <si>
     <t>defaul()</t>
   </si>
   <si>
-    <t>does … nothing.</t>
+    <t>Arg1</t>
+  </si>
+  <si>
+    <t>Arg2</t>
+  </si>
+  <si>
+    <t>Arg3</t>
+  </si>
+  <si>
+    <t>moves all servos to default locations</t>
+  </si>
+  <si>
+    <t>does a side ways wave(do not run unles arm Has plenty of space to move)</t>
+  </si>
+  <si>
+    <t>setServo(servo num(0-8) , position)</t>
   </si>
 </sst>
 </file>
@@ -462,20 +471,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BCF45A-D799-4907-A09B-09B988D0E9D7}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,8 +498,17 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -503,7 +522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -517,7 +536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -531,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -545,9 +564,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -556,10 +575,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -573,7 +592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -587,7 +606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -601,7 +620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -612,12 +631,12 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -626,10 +645,11 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Code/Api/talus-apiv0.1/Api-documentation.xlsx
+++ b/Code/Api/talus-apiv0.1/Api-documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\# Active\Programing\Talus\Talus-apiv_.1\talus-apiv0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payto\Documents\GitHub\Talus\Code\Api\talus-apiv0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2C3EAD-66C5-47D3-81B3-C674C476881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58A7D5D-9B9C-400E-8E9C-EE762DE41E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC0C10AE-12A2-4686-983D-17DBE0389B28}"/>
+    <workbookView minimized="1" xWindow="2268" yWindow="1044" windowWidth="17280" windowHeight="8976" xr2:uid="{EC0C10AE-12A2-4686-983D-17DBE0389B28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>this command is not limited, and takes direct numbers from serial input and will apply them no matter what they are(CAUTION)</t>
   </si>
   <si>
-    <t>defaul()</t>
-  </si>
-  <si>
     <t>Arg1</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>setServo(servo num(0-8) , position)</t>
+  </si>
+  <si>
+    <t>default()</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,13 +499,13 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -566,7 +566,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -631,12 +631,12 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
